--- a/results_stress_test.xlsx
+++ b/results_stress_test.xlsx
@@ -427,7 +427,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F11"/>
+  <dimension ref="A1:G11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -448,20 +448,25 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
+          <t>ACSa</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
           <t>Precisão</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>Recall</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>F1-Score</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>Total_Amostras</t>
         </is>
@@ -470,221 +475,251 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>KNN</t>
+          <t>Decision Tree</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>100</v>
+        <v>57</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>57</v>
       </c>
       <c r="D2" t="n">
-        <v>100</v>
+        <v>59.59</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>57</v>
       </c>
       <c r="F2" t="n">
-        <v>1000</v>
+        <v>53.88</v>
+      </c>
+      <c r="G2" t="n">
+        <v>200</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>SVM</t>
+          <t>Random Forest</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>50.5</v>
+        <v>57</v>
       </c>
       <c r="C3" t="n">
-        <v>75.03</v>
+        <v>57</v>
       </c>
       <c r="D3" t="n">
-        <v>50.5</v>
+        <v>61.86</v>
       </c>
       <c r="E3" t="n">
-        <v>34</v>
+        <v>57</v>
       </c>
       <c r="F3" t="n">
-        <v>1000</v>
+        <v>52.09</v>
+      </c>
+      <c r="G3" t="n">
+        <v>200</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Stacking</t>
+          <t>XGBoost</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>50.4</v>
+        <v>57</v>
       </c>
       <c r="C4" t="n">
-        <v>25.4</v>
+        <v>57</v>
       </c>
       <c r="D4" t="n">
-        <v>50.4</v>
+        <v>58.33</v>
       </c>
       <c r="E4" t="n">
-        <v>33.78</v>
+        <v>57</v>
       </c>
       <c r="F4" t="n">
-        <v>1000</v>
+        <v>55.21</v>
+      </c>
+      <c r="G4" t="n">
+        <v>200</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>MLP</t>
+          <t>LVQ</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>49.3</v>
+        <v>56.5</v>
       </c>
       <c r="C5" t="n">
-        <v>48.74</v>
+        <v>56.5</v>
       </c>
       <c r="D5" t="n">
-        <v>49.3</v>
+        <v>57.41</v>
       </c>
       <c r="E5" t="n">
-        <v>45.46</v>
+        <v>56.5</v>
       </c>
       <c r="F5" t="n">
-        <v>1000</v>
+        <v>55.13</v>
+      </c>
+      <c r="G5" t="n">
+        <v>200</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Random Forest</t>
+          <t>MLP</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>48.5</v>
+        <v>55.5</v>
       </c>
       <c r="C6" t="n">
-        <v>43.25</v>
+        <v>55.5</v>
       </c>
       <c r="D6" t="n">
-        <v>48.5</v>
+        <v>56.01</v>
       </c>
       <c r="E6" t="n">
-        <v>36.97</v>
+        <v>55.5</v>
       </c>
       <c r="F6" t="n">
-        <v>1000</v>
+        <v>54.54</v>
+      </c>
+      <c r="G6" t="n">
+        <v>200</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>LightGBM</t>
+          <t>Ensemble Neural Network</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>48.3</v>
+        <v>55.5</v>
       </c>
       <c r="C7" t="n">
-        <v>45.71</v>
+        <v>55.5</v>
       </c>
       <c r="D7" t="n">
-        <v>48.3</v>
+        <v>55.54</v>
       </c>
       <c r="E7" t="n">
-        <v>40.23</v>
+        <v>55.5</v>
       </c>
       <c r="F7" t="n">
-        <v>1000</v>
+        <v>55.41</v>
+      </c>
+      <c r="G7" t="n">
+        <v>200</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>XGBoost</t>
+          <t>LightGBM</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="C8" t="n">
-        <v>45.8</v>
+        <v>55</v>
       </c>
       <c r="D8" t="n">
-        <v>48</v>
+        <v>55.57</v>
       </c>
       <c r="E8" t="n">
-        <v>41.18</v>
+        <v>55</v>
       </c>
       <c r="F8" t="n">
-        <v>1000</v>
+        <v>53.82</v>
+      </c>
+      <c r="G8" t="n">
+        <v>200</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Decision Tree</t>
+          <t>KNN</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>47.3</v>
+        <v>51.5</v>
       </c>
       <c r="C9" t="n">
-        <v>45.65</v>
+        <v>51.5</v>
       </c>
       <c r="D9" t="n">
-        <v>47.3</v>
+        <v>51.64</v>
       </c>
       <c r="E9" t="n">
-        <v>42.56</v>
+        <v>51.5</v>
       </c>
       <c r="F9" t="n">
-        <v>1000</v>
+        <v>50.46</v>
+      </c>
+      <c r="G9" t="n">
+        <v>200</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Ensemble Neural Network</t>
+          <t>SVM</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>46.1</v>
+        <v>50</v>
       </c>
       <c r="C10" t="n">
-        <v>45.11</v>
+        <v>50</v>
       </c>
       <c r="D10" t="n">
-        <v>46.1</v>
+        <v>25</v>
       </c>
       <c r="E10" t="n">
-        <v>43.68</v>
+        <v>50</v>
       </c>
       <c r="F10" t="n">
-        <v>1000</v>
+        <v>33.33</v>
+      </c>
+      <c r="G10" t="n">
+        <v>200</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>LVQ</t>
+          <t>Stacking</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>45.2</v>
+        <v>50</v>
       </c>
       <c r="C11" t="n">
-        <v>43.13</v>
+        <v>50</v>
       </c>
       <c r="D11" t="n">
-        <v>45.2</v>
+        <v>25</v>
       </c>
       <c r="E11" t="n">
-        <v>41.15</v>
+        <v>50</v>
       </c>
       <c r="F11" t="n">
-        <v>1000</v>
+        <v>33.33</v>
+      </c>
+      <c r="G11" t="n">
+        <v>200</v>
       </c>
     </row>
   </sheetData>
@@ -741,111 +776,111 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>KNN</t>
+          <t>Ensemble Neural Network</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>100</v>
+        <v>56.04</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>51</v>
       </c>
       <c r="D2" t="n">
-        <v>100</v>
+        <v>53.4</v>
       </c>
       <c r="E2" t="n">
-        <v>496</v>
+        <v>100</v>
       </c>
       <c r="F2" t="n">
-        <v>49.6</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Ensemble Neural Network</t>
+          <t>MLP</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>42.66</v>
+        <v>57.75</v>
       </c>
       <c r="C3" t="n">
-        <v>25.2</v>
+        <v>41</v>
       </c>
       <c r="D3" t="n">
-        <v>31.69</v>
+        <v>47.95</v>
       </c>
       <c r="E3" t="n">
-        <v>496</v>
+        <v>100</v>
       </c>
       <c r="F3" t="n">
-        <v>49.6</v>
+        <v>50</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>MLP</t>
+          <t>LVQ</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>47.66</v>
+        <v>60</v>
       </c>
       <c r="C4" t="n">
-        <v>22.58</v>
+        <v>39</v>
       </c>
       <c r="D4" t="n">
-        <v>30.64</v>
+        <v>47.27</v>
       </c>
       <c r="E4" t="n">
-        <v>496</v>
+        <v>100</v>
       </c>
       <c r="F4" t="n">
-        <v>49.6</v>
+        <v>50</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Decision Tree</t>
+          <t>LightGBM</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>42.72</v>
+        <v>57.35</v>
       </c>
       <c r="C5" t="n">
-        <v>18.35</v>
+        <v>39</v>
       </c>
       <c r="D5" t="n">
-        <v>25.67</v>
+        <v>46.43</v>
       </c>
       <c r="E5" t="n">
-        <v>496</v>
+        <v>100</v>
       </c>
       <c r="F5" t="n">
-        <v>49.6</v>
+        <v>50</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>LVQ</t>
+          <t>KNN</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>39.08</v>
+        <v>52.11</v>
       </c>
       <c r="C6" t="n">
-        <v>18.75</v>
+        <v>37</v>
       </c>
       <c r="D6" t="n">
-        <v>25.34</v>
+        <v>43.27</v>
       </c>
       <c r="E6" t="n">
-        <v>496</v>
+        <v>100</v>
       </c>
       <c r="F6" t="n">
-        <v>49.6</v>
+        <v>50</v>
       </c>
     </row>
     <row r="7">
@@ -855,41 +890,41 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>42.5</v>
+        <v>61.67</v>
       </c>
       <c r="C7" t="n">
-        <v>13.71</v>
+        <v>37</v>
       </c>
       <c r="D7" t="n">
-        <v>20.73</v>
+        <v>46.25</v>
       </c>
       <c r="E7" t="n">
-        <v>496</v>
+        <v>100</v>
       </c>
       <c r="F7" t="n">
-        <v>49.6</v>
+        <v>50</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>LightGBM</t>
+          <t>Decision Tree</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>42.11</v>
+        <v>64.58</v>
       </c>
       <c r="C8" t="n">
-        <v>11.29</v>
+        <v>31</v>
       </c>
       <c r="D8" t="n">
-        <v>17.81</v>
+        <v>41.89</v>
       </c>
       <c r="E8" t="n">
-        <v>496</v>
+        <v>100</v>
       </c>
       <c r="F8" t="n">
-        <v>49.6</v>
+        <v>50</v>
       </c>
     </row>
     <row r="9">
@@ -899,19 +934,19 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>36.99</v>
+        <v>69.44</v>
       </c>
       <c r="C9" t="n">
-        <v>5.44</v>
+        <v>25</v>
       </c>
       <c r="D9" t="n">
-        <v>9.49</v>
+        <v>36.76</v>
       </c>
       <c r="E9" t="n">
-        <v>496</v>
+        <v>100</v>
       </c>
       <c r="F9" t="n">
-        <v>49.6</v>
+        <v>50</v>
       </c>
     </row>
     <row r="10">
@@ -921,19 +956,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>496</v>
+        <v>100</v>
       </c>
       <c r="F10" t="n">
-        <v>49.6</v>
+        <v>50</v>
       </c>
     </row>
     <row r="11">
@@ -952,10 +987,10 @@
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>496</v>
+        <v>100</v>
       </c>
       <c r="F11" t="n">
-        <v>49.6</v>
+        <v>50</v>
       </c>
     </row>
   </sheetData>
@@ -1012,199 +1047,199 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>KNN</t>
+          <t>SVM</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="C2" t="n">
         <v>100</v>
       </c>
       <c r="D2" t="n">
-        <v>100</v>
+        <v>66.67</v>
       </c>
       <c r="E2" t="n">
-        <v>504</v>
+        <v>100</v>
       </c>
       <c r="F2" t="n">
-        <v>50.4</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>SVM</t>
+          <t>Stacking</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>50.45</v>
+        <v>50</v>
       </c>
       <c r="C3" t="n">
         <v>100</v>
       </c>
       <c r="D3" t="n">
-        <v>67.06999999999999</v>
+        <v>66.67</v>
       </c>
       <c r="E3" t="n">
-        <v>504</v>
+        <v>100</v>
       </c>
       <c r="F3" t="n">
-        <v>50.4</v>
+        <v>50</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Stacking</t>
+          <t>Random Forest</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>50.4</v>
+        <v>54.27</v>
       </c>
       <c r="C4" t="n">
-        <v>100</v>
+        <v>89</v>
       </c>
       <c r="D4" t="n">
-        <v>67.02</v>
+        <v>67.42</v>
       </c>
       <c r="E4" t="n">
-        <v>504</v>
+        <v>100</v>
       </c>
       <c r="F4" t="n">
-        <v>50.4</v>
+        <v>50</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Random Forest</t>
+          <t>Decision Tree</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>49.41</v>
+        <v>54.61</v>
       </c>
       <c r="C5" t="n">
-        <v>90.87</v>
+        <v>83</v>
       </c>
       <c r="D5" t="n">
-        <v>64.01000000000001</v>
+        <v>65.87</v>
       </c>
       <c r="E5" t="n">
-        <v>504</v>
+        <v>100</v>
       </c>
       <c r="F5" t="n">
-        <v>50.4</v>
+        <v>50</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>LightGBM</t>
+          <t>XGBoost</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>49.25</v>
+        <v>55</v>
       </c>
       <c r="C6" t="n">
-        <v>84.72</v>
+        <v>77</v>
       </c>
       <c r="D6" t="n">
-        <v>62.29</v>
+        <v>64.17</v>
       </c>
       <c r="E6" t="n">
-        <v>504</v>
+        <v>100</v>
       </c>
       <c r="F6" t="n">
-        <v>50.4</v>
+        <v>50</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>XGBoost</t>
+          <t>LVQ</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>49.05</v>
+        <v>54.81</v>
       </c>
       <c r="C7" t="n">
-        <v>81.75</v>
+        <v>74</v>
       </c>
       <c r="D7" t="n">
-        <v>61.31</v>
+        <v>62.98</v>
       </c>
       <c r="E7" t="n">
-        <v>504</v>
+        <v>100</v>
       </c>
       <c r="F7" t="n">
-        <v>50.4</v>
+        <v>50</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>MLP</t>
+          <t>LightGBM</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>49.8</v>
+        <v>53.79</v>
       </c>
       <c r="C8" t="n">
-        <v>75.59999999999999</v>
+        <v>71</v>
       </c>
       <c r="D8" t="n">
-        <v>60.05</v>
+        <v>61.21</v>
       </c>
       <c r="E8" t="n">
-        <v>504</v>
+        <v>100</v>
       </c>
       <c r="F8" t="n">
-        <v>50.4</v>
+        <v>50</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Decision Tree</t>
+          <t>MLP</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>48.54</v>
+        <v>54.26</v>
       </c>
       <c r="C9" t="n">
-        <v>75.79000000000001</v>
+        <v>70</v>
       </c>
       <c r="D9" t="n">
-        <v>59.18</v>
+        <v>61.14</v>
       </c>
       <c r="E9" t="n">
-        <v>504</v>
+        <v>100</v>
       </c>
       <c r="F9" t="n">
-        <v>50.4</v>
+        <v>50</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>LVQ</t>
+          <t>KNN</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>47.11</v>
+        <v>51.16</v>
       </c>
       <c r="C10" t="n">
-        <v>71.23</v>
+        <v>66</v>
       </c>
       <c r="D10" t="n">
-        <v>56.71</v>
+        <v>57.64</v>
       </c>
       <c r="E10" t="n">
-        <v>504</v>
+        <v>100</v>
       </c>
       <c r="F10" t="n">
-        <v>50.4</v>
+        <v>50</v>
       </c>
     </row>
     <row r="11">
@@ -1214,19 +1249,19 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>47.52</v>
+        <v>55.05</v>
       </c>
       <c r="C11" t="n">
-        <v>66.67</v>
+        <v>60</v>
       </c>
       <c r="D11" t="n">
-        <v>55.49</v>
+        <v>57.42</v>
       </c>
       <c r="E11" t="n">
-        <v>504</v>
+        <v>100</v>
       </c>
       <c r="F11" t="n">
-        <v>50.4</v>
+        <v>50</v>
       </c>
     </row>
   </sheetData>

--- a/results_stress_test.xlsx
+++ b/results_stress_test.xlsx
@@ -427,7 +427,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G11"/>
+  <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -475,23 +475,23 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Decision Tree</t>
+          <t>Random Forest</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="C2" t="n">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="D2" t="n">
-        <v>59.59</v>
+        <v>63.33</v>
       </c>
       <c r="E2" t="n">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="F2" t="n">
-        <v>53.88</v>
+        <v>57.33</v>
       </c>
       <c r="G2" t="n">
         <v>200</v>
@@ -500,23 +500,23 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Random Forest</t>
+          <t>LightGBM</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C3" t="n">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D3" t="n">
-        <v>61.86</v>
+        <v>59.71</v>
       </c>
       <c r="E3" t="n">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F3" t="n">
-        <v>52.09</v>
+        <v>56.06</v>
       </c>
       <c r="G3" t="n">
         <v>200</v>
@@ -525,23 +525,23 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>XGBoost</t>
+          <t>Decision Tree</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>57</v>
+        <v>56.5</v>
       </c>
       <c r="C4" t="n">
-        <v>57</v>
+        <v>56.5</v>
       </c>
       <c r="D4" t="n">
-        <v>58.33</v>
+        <v>58.15</v>
       </c>
       <c r="E4" t="n">
-        <v>57</v>
+        <v>56.5</v>
       </c>
       <c r="F4" t="n">
-        <v>55.21</v>
+        <v>54.18</v>
       </c>
       <c r="G4" t="n">
         <v>200</v>
@@ -550,7 +550,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>LVQ</t>
+          <t>XGBoost</t>
         </is>
       </c>
       <c r="B5" t="n">
@@ -560,13 +560,13 @@
         <v>56.5</v>
       </c>
       <c r="D5" t="n">
-        <v>57.41</v>
+        <v>57.67</v>
       </c>
       <c r="E5" t="n">
         <v>56.5</v>
       </c>
       <c r="F5" t="n">
-        <v>55.13</v>
+        <v>54.78</v>
       </c>
       <c r="G5" t="n">
         <v>200</v>
@@ -575,7 +575,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>MLP</t>
+          <t>KNN</t>
         </is>
       </c>
       <c r="B6" t="n">
@@ -585,140 +585,15 @@
         <v>55.5</v>
       </c>
       <c r="D6" t="n">
-        <v>56.01</v>
+        <v>56.27</v>
       </c>
       <c r="E6" t="n">
         <v>55.5</v>
       </c>
       <c r="F6" t="n">
-        <v>54.54</v>
+        <v>54.09</v>
       </c>
       <c r="G6" t="n">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>Ensemble Neural Network</t>
-        </is>
-      </c>
-      <c r="B7" t="n">
-        <v>55.5</v>
-      </c>
-      <c r="C7" t="n">
-        <v>55.5</v>
-      </c>
-      <c r="D7" t="n">
-        <v>55.54</v>
-      </c>
-      <c r="E7" t="n">
-        <v>55.5</v>
-      </c>
-      <c r="F7" t="n">
-        <v>55.41</v>
-      </c>
-      <c r="G7" t="n">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>LightGBM</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
-        <v>55</v>
-      </c>
-      <c r="C8" t="n">
-        <v>55</v>
-      </c>
-      <c r="D8" t="n">
-        <v>55.57</v>
-      </c>
-      <c r="E8" t="n">
-        <v>55</v>
-      </c>
-      <c r="F8" t="n">
-        <v>53.82</v>
-      </c>
-      <c r="G8" t="n">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>KNN</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
-        <v>51.5</v>
-      </c>
-      <c r="C9" t="n">
-        <v>51.5</v>
-      </c>
-      <c r="D9" t="n">
-        <v>51.64</v>
-      </c>
-      <c r="E9" t="n">
-        <v>51.5</v>
-      </c>
-      <c r="F9" t="n">
-        <v>50.46</v>
-      </c>
-      <c r="G9" t="n">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>SVM</t>
-        </is>
-      </c>
-      <c r="B10" t="n">
-        <v>50</v>
-      </c>
-      <c r="C10" t="n">
-        <v>50</v>
-      </c>
-      <c r="D10" t="n">
-        <v>25</v>
-      </c>
-      <c r="E10" t="n">
-        <v>50</v>
-      </c>
-      <c r="F10" t="n">
-        <v>33.33</v>
-      </c>
-      <c r="G10" t="n">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Stacking</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>50</v>
-      </c>
-      <c r="C11" t="n">
-        <v>50</v>
-      </c>
-      <c r="D11" t="n">
-        <v>25</v>
-      </c>
-      <c r="E11" t="n">
-        <v>50</v>
-      </c>
-      <c r="F11" t="n">
-        <v>33.33</v>
-      </c>
-      <c r="G11" t="n">
         <v>200</v>
       </c>
     </row>
@@ -733,7 +608,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F11"/>
+  <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -776,17 +651,17 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Ensemble Neural Network</t>
+          <t>KNN</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>56.04</v>
+        <v>58.46</v>
       </c>
       <c r="C2" t="n">
-        <v>51</v>
+        <v>38</v>
       </c>
       <c r="D2" t="n">
-        <v>53.4</v>
+        <v>46.06</v>
       </c>
       <c r="E2" t="n">
         <v>100</v>
@@ -798,17 +673,17 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>MLP</t>
+          <t>XGBoost</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>57.75</v>
+        <v>60.66</v>
       </c>
       <c r="C3" t="n">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="D3" t="n">
-        <v>47.95</v>
+        <v>45.96</v>
       </c>
       <c r="E3" t="n">
         <v>100</v>
@@ -820,17 +695,17 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>LVQ</t>
+          <t>LightGBM</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>60</v>
+        <v>63.79</v>
       </c>
       <c r="C4" t="n">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D4" t="n">
-        <v>47.27</v>
+        <v>46.84</v>
       </c>
       <c r="E4" t="n">
         <v>100</v>
@@ -842,17 +717,17 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>LightGBM</t>
+          <t>Random Forest</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>57.35</v>
+        <v>70</v>
       </c>
       <c r="C5" t="n">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="D5" t="n">
-        <v>46.43</v>
+        <v>46.67</v>
       </c>
       <c r="E5" t="n">
         <v>100</v>
@@ -864,132 +739,22 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>KNN</t>
+          <t>Decision Tree</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>52.11</v>
+        <v>61.82</v>
       </c>
       <c r="C6" t="n">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="D6" t="n">
-        <v>43.27</v>
+        <v>43.87</v>
       </c>
       <c r="E6" t="n">
         <v>100</v>
       </c>
       <c r="F6" t="n">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>XGBoost</t>
-        </is>
-      </c>
-      <c r="B7" t="n">
-        <v>61.67</v>
-      </c>
-      <c r="C7" t="n">
-        <v>37</v>
-      </c>
-      <c r="D7" t="n">
-        <v>46.25</v>
-      </c>
-      <c r="E7" t="n">
-        <v>100</v>
-      </c>
-      <c r="F7" t="n">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>Decision Tree</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
-        <v>64.58</v>
-      </c>
-      <c r="C8" t="n">
-        <v>31</v>
-      </c>
-      <c r="D8" t="n">
-        <v>41.89</v>
-      </c>
-      <c r="E8" t="n">
-        <v>100</v>
-      </c>
-      <c r="F8" t="n">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>Random Forest</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
-        <v>69.44</v>
-      </c>
-      <c r="C9" t="n">
-        <v>25</v>
-      </c>
-      <c r="D9" t="n">
-        <v>36.76</v>
-      </c>
-      <c r="E9" t="n">
-        <v>100</v>
-      </c>
-      <c r="F9" t="n">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>SVM</t>
-        </is>
-      </c>
-      <c r="B10" t="n">
-        <v>0</v>
-      </c>
-      <c r="C10" t="n">
-        <v>0</v>
-      </c>
-      <c r="D10" t="n">
-        <v>0</v>
-      </c>
-      <c r="E10" t="n">
-        <v>100</v>
-      </c>
-      <c r="F10" t="n">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Stacking</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>0</v>
-      </c>
-      <c r="C11" t="n">
-        <v>0</v>
-      </c>
-      <c r="D11" t="n">
-        <v>0</v>
-      </c>
-      <c r="E11" t="n">
-        <v>100</v>
-      </c>
-      <c r="F11" t="n">
         <v>50</v>
       </c>
     </row>
@@ -1004,7 +769,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F11"/>
+  <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1047,17 +812,17 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>SVM</t>
+          <t>Random Forest</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>50</v>
+        <v>56.67</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>85</v>
       </c>
       <c r="D2" t="n">
-        <v>66.67</v>
+        <v>68</v>
       </c>
       <c r="E2" t="n">
         <v>100</v>
@@ -1069,17 +834,17 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Stacking</t>
+          <t>Decision Tree</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>50</v>
+        <v>54.48</v>
       </c>
       <c r="C3" t="n">
-        <v>100</v>
+        <v>79</v>
       </c>
       <c r="D3" t="n">
-        <v>66.67</v>
+        <v>64.48999999999999</v>
       </c>
       <c r="E3" t="n">
         <v>100</v>
@@ -1091,17 +856,17 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Random Forest</t>
+          <t>LightGBM</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>54.27</v>
+        <v>55.63</v>
       </c>
       <c r="C4" t="n">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="D4" t="n">
-        <v>67.42</v>
+        <v>65.29000000000001</v>
       </c>
       <c r="E4" t="n">
         <v>100</v>
@@ -1113,17 +878,17 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Decision Tree</t>
+          <t>XGBoost</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>54.61</v>
+        <v>54.68</v>
       </c>
       <c r="C5" t="n">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="D5" t="n">
-        <v>65.87</v>
+        <v>63.6</v>
       </c>
       <c r="E5" t="n">
         <v>100</v>
@@ -1135,132 +900,22 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>XGBoost</t>
+          <t>KNN</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>55</v>
+        <v>54.07</v>
       </c>
       <c r="C6" t="n">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="D6" t="n">
-        <v>64.17</v>
+        <v>62.13</v>
       </c>
       <c r="E6" t="n">
         <v>100</v>
       </c>
       <c r="F6" t="n">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>LVQ</t>
-        </is>
-      </c>
-      <c r="B7" t="n">
-        <v>54.81</v>
-      </c>
-      <c r="C7" t="n">
-        <v>74</v>
-      </c>
-      <c r="D7" t="n">
-        <v>62.98</v>
-      </c>
-      <c r="E7" t="n">
-        <v>100</v>
-      </c>
-      <c r="F7" t="n">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>LightGBM</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
-        <v>53.79</v>
-      </c>
-      <c r="C8" t="n">
-        <v>71</v>
-      </c>
-      <c r="D8" t="n">
-        <v>61.21</v>
-      </c>
-      <c r="E8" t="n">
-        <v>100</v>
-      </c>
-      <c r="F8" t="n">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>MLP</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
-        <v>54.26</v>
-      </c>
-      <c r="C9" t="n">
-        <v>70</v>
-      </c>
-      <c r="D9" t="n">
-        <v>61.14</v>
-      </c>
-      <c r="E9" t="n">
-        <v>100</v>
-      </c>
-      <c r="F9" t="n">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>KNN</t>
-        </is>
-      </c>
-      <c r="B10" t="n">
-        <v>51.16</v>
-      </c>
-      <c r="C10" t="n">
-        <v>66</v>
-      </c>
-      <c r="D10" t="n">
-        <v>57.64</v>
-      </c>
-      <c r="E10" t="n">
-        <v>100</v>
-      </c>
-      <c r="F10" t="n">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Ensemble Neural Network</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>55.05</v>
-      </c>
-      <c r="C11" t="n">
-        <v>60</v>
-      </c>
-      <c r="D11" t="n">
-        <v>57.42</v>
-      </c>
-      <c r="E11" t="n">
-        <v>100</v>
-      </c>
-      <c r="F11" t="n">
         <v>50</v>
       </c>
     </row>
